--- a/abertura_pastas/teste_db.xlsx
+++ b/abertura_pastas/teste_db.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Grupo 4</t>
   </si>
   <si>
-    <t xml:space="preserve">ABIGAIL MAIA DA SILVA46</t>
+    <t xml:space="preserve">ABIGAIL MAIA DA SILVA50</t>
   </si>
   <si>
     <t xml:space="preserve">J</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">PA</t>
   </si>
   <si>
-    <t xml:space="preserve">ABRAAO VIEIRA DA COSTA46</t>
+    <t xml:space="preserve">ABRAAO VIEIRA DA COSTA50</t>
   </si>
   <si>
     <t xml:space="preserve">Porto Velho</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">RO</t>
   </si>
   <si>
-    <t xml:space="preserve">ACACIO FERNANDES DE SOUZA46</t>
+    <t xml:space="preserve">ACACIO FERNANDES DE SOUZA50</t>
   </si>
   <si>
     <t xml:space="preserve">Ariquemes</t>

--- a/abertura_pastas/teste_db.xlsx
+++ b/abertura_pastas/teste_db.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Grupo 4</t>
   </si>
   <si>
-    <t xml:space="preserve">ABIGAIL MAIA DA SILVA50</t>
+    <t xml:space="preserve">ABIGAIL MAIA DA SILVA51</t>
   </si>
   <si>
     <t xml:space="preserve">J</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">PA</t>
   </si>
   <si>
-    <t xml:space="preserve">ABRAAO VIEIRA DA COSTA50</t>
+    <t xml:space="preserve">ABRAAO VIEIRA DA COSTA51</t>
   </si>
   <si>
     <t xml:space="preserve">Porto Velho</t>
@@ -118,7 +118,7 @@
     <t xml:space="preserve">RO</t>
   </si>
   <si>
-    <t xml:space="preserve">ACACIO FERNANDES DE SOUZA50</t>
+    <t xml:space="preserve">ACACIO FERNANDES DE SOUZA51</t>
   </si>
   <si>
     <t xml:space="preserve">Ariquemes</t>
@@ -427,22 +427,22 @@
   </sheetPr>
   <dimension ref="A1:Q5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.86"/>
@@ -566,8 +566,8 @@
         <v>18</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f aca="false">"7017342-35.2017.8.22.0001"</f>
-        <v>7017342-35.2017.8.22.0001</v>
+        <f aca="false">"7017341-35.2017.8.22.0001"</f>
+        <v>7017341-35.2017.8.22.0001</v>
       </c>
       <c r="D3" s="9" t="str">
         <f aca="false">"7017341-35.2017.8.22.0001"</f>

--- a/abertura_pastas/teste_db.xlsx
+++ b/abertura_pastas/teste_db.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
   <si>
     <t xml:space="preserve">Nome/Razão Social</t>
   </si>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Grupo 4</t>
   </si>
   <si>
-    <t xml:space="preserve">ABIGAIL MAIA DA SILVA51</t>
+    <t xml:space="preserve">ABIGAIL MAIA DA SILVA55</t>
   </si>
   <si>
     <t xml:space="preserve">J</t>
@@ -103,28 +103,19 @@
     <t xml:space="preserve">PA</t>
   </si>
   <si>
-    <t xml:space="preserve">ABRAAO VIEIRA DA COSTA51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porto Velho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 ª-º Vara Cível</t>
+    <t xml:space="preserve">ACACIO FERNANDES DE SOUZA55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ariquemes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juizado Especial Cível</t>
   </si>
   <si>
     <t xml:space="preserve">cbradesco</t>
   </si>
   <si>
     <t xml:space="preserve">RO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ACACIO FERNANDES DE SOUZA51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ariquemes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juizado Especial Cível</t>
   </si>
 </sst>
 </file>
@@ -190,7 +181,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,7 +191,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF1F1F1"/>
-        <bgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
@@ -236,12 +227,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor rgb="FFF1F1F1"/>
       </patternFill>
     </fill>
@@ -287,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -341,10 +326,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,8 +358,8 @@
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFF1F1F1"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
@@ -425,9 +406,9 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Q5"/>
+  <dimension ref="A1:Q1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -435,14 +416,14 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="13.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="15.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="39.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="21.86"/>
@@ -558,7 +539,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" s="14" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>17</v>
       </c>
@@ -566,16 +547,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="9" t="str">
-        <f aca="false">"7017341-35.2017.8.22.0001"</f>
-        <v>7017341-35.2017.8.22.0001</v>
+        <f aca="false">"7001091-21.2017.8.22.0002"</f>
+        <v>7001091-21.2017.8.22.0002</v>
       </c>
       <c r="D3" s="9" t="str">
-        <f aca="false">"7017341-35.2017.8.22.0001"</f>
-        <v>7017341-35.2017.8.22.0001</v>
+        <f aca="false">"7001091-21.2017.8.22.0002"</f>
+        <v>7001091-21.2017.8.22.0002</v>
       </c>
       <c r="E3" s="9" t="str">
-        <f aca="false">"1700755381"</f>
-        <v>1700755381</v>
+        <f aca="false">"1700117977"</f>
+        <v>1700117977</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>19</v>
@@ -601,68 +582,17 @@
         <v>30</v>
       </c>
       <c r="O3" s="11" t="n">
-        <v>10000</v>
+        <v>38621.82</v>
       </c>
       <c r="P3" s="12" t="n">
-        <v>43083</v>
+        <v>42801</v>
       </c>
       <c r="Q3" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="true" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="9" t="str">
-        <f aca="false">"7001091-21.2017.8.22.0002"</f>
-        <v>7001091-21.2017.8.22.0002</v>
-      </c>
-      <c r="D4" s="9" t="str">
-        <f aca="false">"7001091-21.2017.8.22.0002"</f>
-        <v>7001091-21.2017.8.22.0002</v>
-      </c>
-      <c r="E4" s="9" t="str">
-        <f aca="false">"1700117977"</f>
-        <v>1700117977</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O4" s="11" t="n">
-        <v>38621.82</v>
-      </c>
-      <c r="P4" s="12" t="n">
-        <v>42801</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/abertura_pastas/teste_db.xlsx
+++ b/abertura_pastas/teste_db.xlsx
@@ -85,7 +85,7 @@
     <t xml:space="preserve">Grupo 4</t>
   </si>
   <si>
-    <t xml:space="preserve">ABIGAIL MAIA DA SILVA55</t>
+    <t xml:space="preserve">ABIGAIL MAIA DA SILVA56</t>
   </si>
   <si>
     <t xml:space="preserve">J</t>
@@ -103,7 +103,7 @@
     <t xml:space="preserve">PA</t>
   </si>
   <si>
-    <t xml:space="preserve">ACACIO FERNANDES DE SOUZA55</t>
+    <t xml:space="preserve">ACACIO FERNANDES DE SOUZA56</t>
   </si>
   <si>
     <t xml:space="preserve">Ariquemes</t>
